--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H2">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J2">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="N2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="O2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="P2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="Q2">
-        <v>2.769299337755555</v>
+        <v>4.448510821738778</v>
       </c>
       <c r="R2">
-        <v>24.9236940398</v>
+        <v>40.036597395649</v>
       </c>
       <c r="S2">
-        <v>0.005553339262809897</v>
+        <v>0.008391012475665377</v>
       </c>
       <c r="T2">
-        <v>0.005553339262809897</v>
+        <v>0.008391012475665378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H3">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J3">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>458.554443</v>
       </c>
       <c r="O3">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="P3">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="Q3">
-        <v>5.110334514766667</v>
+        <v>6.968448068296333</v>
       </c>
       <c r="R3">
-        <v>45.9930106329</v>
+        <v>62.716032614667</v>
       </c>
       <c r="S3">
-        <v>0.01024787061479135</v>
+        <v>0.01314424917016295</v>
       </c>
       <c r="T3">
-        <v>0.01024787061479135</v>
+        <v>0.01314424917016295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03343333333333334</v>
+        <v>0.04558966666666667</v>
       </c>
       <c r="H4">
-        <v>0.1003</v>
+        <v>0.136769</v>
       </c>
       <c r="I4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="J4">
-        <v>0.01753259568243662</v>
+        <v>0.02375599288687187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>77.473134</v>
       </c>
       <c r="O4">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="P4">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="Q4">
-        <v>0.8633950378</v>
+        <v>1.177324784894</v>
       </c>
       <c r="R4">
-        <v>7.7705553402</v>
+        <v>10.595923064046</v>
       </c>
       <c r="S4">
-        <v>0.001731385804835376</v>
+        <v>0.002220731241043548</v>
       </c>
       <c r="T4">
-        <v>0.001731385804835376</v>
+        <v>0.002220731241043548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.13889</v>
       </c>
       <c r="I5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J5">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="N5">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="O5">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="P5">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="Q5">
-        <v>31.44493841252666</v>
+        <v>37.04322243907667</v>
       </c>
       <c r="R5">
-        <v>283.0044457127399</v>
+        <v>333.38900195169</v>
       </c>
       <c r="S5">
-        <v>0.0630572537689089</v>
+        <v>0.06987285275472176</v>
       </c>
       <c r="T5">
-        <v>0.06305725376890892</v>
+        <v>0.06987285275472177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.13889</v>
       </c>
       <c r="I6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J6">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>458.554443</v>
       </c>
       <c r="O6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="P6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="Q6">
         <v>58.02700773203</v>
@@ -818,10 +818,10 @@
         <v>522.2430695882699</v>
       </c>
       <c r="S6">
-        <v>0.1163628849898277</v>
+        <v>0.1094535599251795</v>
       </c>
       <c r="T6">
-        <v>0.1163628849898277</v>
+        <v>0.1094535599251795</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.13889</v>
       </c>
       <c r="I7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="J7">
-        <v>0.1990797397484571</v>
+        <v>0.1978186777627204</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>77.473134</v>
       </c>
       <c r="O7">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="P7">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="Q7">
         <v>9.803708620139998</v>
@@ -880,10 +880,10 @@
         <v>88.23337758126</v>
       </c>
       <c r="S7">
-        <v>0.01965960098972045</v>
+        <v>0.0184922650828191</v>
       </c>
       <c r="T7">
-        <v>0.01965960098972045</v>
+        <v>0.01849226508281911</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J8">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="N8">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="O8">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="P8">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="Q8">
-        <v>123.7372366300753</v>
+        <v>145.7667342308604</v>
       </c>
       <c r="R8">
-        <v>1113.635129670678</v>
+        <v>1311.900608077743</v>
       </c>
       <c r="S8">
-        <v>0.2481331090073915</v>
+        <v>0.2749527953244512</v>
       </c>
       <c r="T8">
-        <v>0.2481331090073916</v>
+        <v>0.2749527953244513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J9">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>458.554443</v>
       </c>
       <c r="O9">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="P9">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="Q9">
         <v>228.338866258141</v>
@@ -1004,10 +1004,10 @@
         <v>2055.049796323269</v>
       </c>
       <c r="S9">
-        <v>0.4578931478908121</v>
+        <v>0.4307046452687844</v>
       </c>
       <c r="T9">
-        <v>0.4578931478908122</v>
+        <v>0.4307046452687845</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>4.481583000000001</v>
       </c>
       <c r="I10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504076</v>
       </c>
       <c r="J10">
-        <v>0.7833876645691064</v>
+        <v>0.7784253293504078</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>77.473134</v>
       </c>
       <c r="O10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="P10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="Q10">
         <v>38.578031143458</v>
@@ -1066,10 +1066,10 @@
         <v>347.2022802911221</v>
       </c>
       <c r="S10">
-        <v>0.07736140767090267</v>
+        <v>0.07276788875717206</v>
       </c>
       <c r="T10">
-        <v>0.07736140767090269</v>
+        <v>0.07276788875717208</v>
       </c>
     </row>
   </sheetData>
